--- a/biology/Zoologie/Centroselachus_crepidater/Centroselachus_crepidater.xlsx
+++ b/biology/Zoologie/Centroselachus_crepidater/Centroselachus_crepidater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centroselachus crepidater est une espèce de requins de la famille des Somnosidae. C'est la seule espèce du genre Centroselachus.
 Ce genre n'est pas reconnu par ITIS qui place l'espèce dans Centroscymnus
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
